--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2926.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2926.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2926.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2926.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>1.571607112884521</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.238519191741943</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.569770336151123</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.616632103919983</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.8047512769699097</v>
       </c>
     </row>
   </sheetData>
